--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_gcu.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_gcu.xlsx
@@ -757,49 +757,49 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1350456157814323</v>
+        <v>-0.1350456157814323</v>
       </c>
       <c r="D6" t="n">
-        <v>1.257520228398636</v>
+        <v>-1.257520228398636</v>
       </c>
       <c r="E6" t="n">
+        <v>0.03187866994171053</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03984833742713816</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.03984833742713816</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.01017239069785181</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.004101513501587363</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.03376140394535807</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>-0.03187866994171053</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.03984833742713816</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03984833742713816</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.01017239069785181</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.004101513501587363</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.03376140394535807</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.03187866994171053</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -810,22 +810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.03914929514492423</v>
+        <v>0.03914929514492423</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4538996768412207</v>
+        <v>0.4538996768412207</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.758751404941008</v>
+        <v>3.758751404941008</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006559828539637767</v>
+        <v>-0.006559828539637767</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.787323786231058e-05</v>
+        <v>9.787323786231058e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.787323786231058e-05</v>
+        <v>9.787323786231058e-05</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01351027809381188</v>
+        <v>0.01351027809381188</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.00894279542134511</v>
+        <v>0.00894279542134511</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0797135152649471</v>
+        <v>0.0797135152649471</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -866,22 +866,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5169976103658583</v>
+        <v>0.5169976103658583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1162059477350035</v>
+        <v>-0.1162059477350035</v>
       </c>
       <c r="D8" t="n">
-        <v>1.713873005986437</v>
+        <v>-1.713873005986437</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004514858154619819</v>
+        <v>-0.004514858154619819</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001390367263776956</v>
+        <v>0.001390367263776956</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.001390367263776956</v>
+        <v>0.001390367263776956</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -890,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.05507728516239923</v>
+        <v>0.05507728516239923</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01018664147157826</v>
+        <v>0.01018664147157826</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05066202833119624</v>
+        <v>0.05066202833119624</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -922,22 +922,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4902250343545236</v>
+        <v>-0.4902250343545236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2350806200777308</v>
+        <v>-0.2350806200777308</v>
       </c>
       <c r="D9" t="n">
-        <v>2.713688029859373</v>
+        <v>-2.713688029859373</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005022868147942862</v>
+        <v>-0.005022868147942862</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0001648046778906474</v>
+        <v>0.0001648046778906474</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0001648046778906474</v>
+        <v>0.0001648046778906474</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01907669382475447</v>
+        <v>-0.01907669382475447</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005433437941654864</v>
+        <v>-0.005433437941654864</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008108126688236454</v>
+        <v>-0.008108126688236454</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2044354114799068</v>
+        <v>0.2044354114799068</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3771053698811812</v>
+        <v>0.3771053698811812</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.641554347197355</v>
+        <v>2.641554347197355</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004010470772660529</v>
+        <v>-0.004010470772660529</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0006758932065904144</v>
+        <v>0.0006758932065904144</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0006758932065904144</v>
+        <v>0.0006758932065904144</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005061176482077417</v>
+        <v>-0.005061176482077417</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.007582762082952003</v>
+        <v>0.007582762082952003</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1301020104252687</v>
+        <v>0.1301020104252687</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1034,22 +1034,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.03370269415869516</v>
+        <v>0.03370269415869516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.141332093502876</v>
+        <v>-0.141332093502876</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3102369943184594</v>
+        <v>0.3102369943184594</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003533592633537411</v>
+        <v>-0.003533592633537411</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0007601499419871522</v>
+        <v>0.0007601499419871522</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0007601499419871522</v>
+        <v>0.0007601499419871522</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.03702772707914268</v>
+        <v>0.03702772707914268</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.008276213904062081</v>
+        <v>0.008276213904062081</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04238860095241914</v>
+        <v>-0.04238860095241914</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1090,22 +1090,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06547636461358738</v>
+        <v>-0.06547636461358738</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03769795904376654</v>
+        <v>0.03769795904376654</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9364281078566495</v>
+        <v>-0.9364281078566495</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0033611668591558</v>
+        <v>-0.0033611668591558</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0005964590304531837</v>
+        <v>0.0005964590304531837</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0005964590304531837</v>
+        <v>0.0005964590304531837</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001728678631571389</v>
+        <v>-0.001728678631571389</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.001792506315740031</v>
+        <v>0.001792506315740031</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04547963132631398</v>
+        <v>-0.04547963132631398</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.05618524923984332</v>
+        <v>0.05618524923984332</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.07365831172683721</v>
+        <v>0.07365831172683721</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1659575636237539</v>
+        <v>-0.1659575636237539</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002952311758051509</v>
+        <v>-0.002952311758051509</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.000736922153552792</v>
+        <v>0.000736922153552792</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.000736922153552792</v>
+        <v>0.000736922153552792</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01538711497152103</v>
+        <v>0.01538711497152103</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.007846740529630556</v>
+        <v>0.007846740529630556</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1058590806119817</v>
+        <v>0.1058590806119817</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1202,22 +1202,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.002520721576244183</v>
+        <v>0.002520721576244183</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04442431322288492</v>
+        <v>-0.04442431322288492</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6409598914148308</v>
+        <v>0.6409598914148308</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002719393803794675</v>
+        <v>-0.002719393803794675</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0007432239574934025</v>
+        <v>0.0007432239574934025</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0007432239574934025</v>
+        <v>0.0007432239574934025</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.007533061797881907</v>
+        <v>0.007533061797881907</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.005322914351678844</v>
+        <v>0.005322914351678844</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01353885750671187</v>
+        <v>-0.01353885750671187</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1258,22 +1258,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.001812401203006362</v>
+        <v>0.001812401203006362</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02094804795292291</v>
+        <v>0.02094804795292291</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1816797261267206</v>
+        <v>-0.1816797261267206</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002520944029302362</v>
+        <v>-0.002520944029302362</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0007477549605009184</v>
+        <v>0.0007477549605009184</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0007477549605009184</v>
+        <v>0.0007477549605009184</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1282,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.002103689294772455</v>
+        <v>0.002103689294772455</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.004355674176792247</v>
+        <v>0.004355674176792247</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01505772570398225</v>
+        <v>-0.01505772570398225</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.01687879688883343</v>
+        <v>0.01687879688883343</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01195530259626604</v>
+        <v>0.01195530259626604</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3070193815446881</v>
+        <v>-0.3070193815446881</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00231349723460826</v>
+        <v>-0.00231349723460826</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0007899519527230019</v>
+        <v>0.0007899519527230019</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0007899519527230019</v>
+        <v>0.0007899519527230019</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.009186090384758544</v>
+        <v>0.009186090384758544</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.005807482683497412</v>
+        <v>0.005807482683497412</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0172630158948567</v>
+        <v>0.0172630158948567</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.002914896049358473</v>
+        <v>0.002914896049358473</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008483277514582646</v>
+        <v>-0.008483277514582646</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05584499487434208</v>
+        <v>0.05584499487434208</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002162071869829561</v>
+        <v>-0.002162071869829561</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0007972391928463981</v>
+        <v>0.0007972391928463981</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0007972391928463981</v>
+        <v>0.0007972391928463981</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.00506613047642893</v>
+        <v>0.00506613047642893</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.004880238833115383</v>
+        <v>0.004880238833115383</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02038817501859068</v>
+        <v>-0.02038817501859068</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1426,22 +1426,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.005411714696544108</v>
+        <v>0.005411714696544108</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01079967983551473</v>
+        <v>0.01079967983551473</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06562848205399541</v>
+        <v>0.06562848205399541</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002022157725259482</v>
+        <v>-0.002022157725259482</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0008107684795877583</v>
+        <v>0.0008107684795877583</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0008107684795877583</v>
+        <v>0.0008107684795877583</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.003623475928885183</v>
+        <v>0.003623475928885183</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.004918138298879123</v>
+        <v>0.004918138298879123</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.001271876419648352</v>
+        <v>0.001271876419648352</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.007684596030784887</v>
+        <v>0.007684596030784887</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006149402889044277</v>
+        <v>-0.0006149402889044277</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1557747259632822</v>
+        <v>-0.1557747259632822</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001891671444339047</v>
+        <v>-0.001891671444339047</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0008299799696647205</v>
+        <v>0.0008299799696647205</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0008299799696647205</v>
+        <v>0.0008299799696647205</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.005416546407328763</v>
+        <v>0.005416546407328763</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.005065851432772697</v>
+        <v>0.005065851432772697</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.001310501862300969</v>
+        <v>0.001310501862300969</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1538,22 +1538,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.004512177162709753</v>
+        <v>0.004512177162709753</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.002686415059682965</v>
+        <v>0.002686415059682965</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09888111239948225</v>
+        <v>-0.09888111239948225</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001781423053988469</v>
+        <v>-0.001781423053988469</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0008412604125714949</v>
+        <v>0.0008412604125714949</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0008412604125714949</v>
+        <v>0.0008412604125714949</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1562,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.004368094897022124</v>
+        <v>0.004368094897022124</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.004795634197270188</v>
+        <v>0.004795634197270188</v>
       </c>
       <c r="L20" t="n">
-        <v>0.008089121111830889</v>
+        <v>-0.008089121111830889</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1594,22 +1594,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.005399353291148765</v>
+        <v>0.005399353291148765</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.005178917543301898</v>
+        <v>0.005178917543301898</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01264520930080659</v>
+        <v>-0.01264520930080659</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001679528437222567</v>
+        <v>-0.001679528437222567</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0008547587957993668</v>
+        <v>0.0008547587957993668</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0008547587957993668</v>
+        <v>0.0008547587957993668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.004621262048742356</v>
+        <v>0.004621262048742356</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.004911556919801685</v>
+        <v>0.004911556919801685</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005536124390301388</v>
+        <v>-0.0005536124390301388</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1650,22 +1650,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.005299429840654605</v>
+        <v>0.005299429840654605</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0006925355119967122</v>
+        <v>0.0006925355119967122</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05739314405559685</v>
+        <v>-0.05739314405559685</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001586933202496124</v>
+        <v>-0.001586933202496124</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0008680073704010033</v>
+        <v>0.0008680073704010033</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0008680073704010033</v>
+        <v>0.0008680073704010033</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.00446566108241209</v>
+        <v>0.00446566108241209</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.004819255323737224</v>
+        <v>0.004819255323737224</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001637743972365896</v>
+        <v>-0.001637743972365896</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1706,22 +1706,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.004588111972535157</v>
+        <v>0.004588111972535157</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.003648048878164334</v>
+        <v>0.003648048878164334</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09436524411862267</v>
+        <v>-0.09436524411862267</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001503850971539114</v>
+        <v>-0.001503850971539114</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0008794776503323412</v>
+        <v>0.0008794776503323412</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0008794776503323412</v>
+        <v>0.0008794776503323412</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.004197264007042575</v>
+        <v>0.004197264007042575</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.004747798423443078</v>
+        <v>0.004747798423443078</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002365067159042286</v>
+        <v>-0.002365067159042286</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.004900154349624792</v>
+        <v>0.004900154349624792</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.003672944425698424</v>
+        <v>0.003672944425698424</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06074343734212337</v>
+        <v>-0.06074343734212337</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001426748386288311</v>
+        <v>-0.001426748386288311</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0008917280362064032</v>
+        <v>0.0008917280362064032</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0008917280362064032</v>
+        <v>0.0008917280362064032</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1786,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.004522562533021383</v>
+        <v>0.004522562533021383</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.004783471868684389</v>
+        <v>0.004783471868684389</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001069983307231783</v>
+        <v>-0.001069983307231783</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.004683728289235712</v>
+        <v>0.004683728289235712</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.002416042471548525</v>
+        <v>0.002416042471548525</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04923813107304317</v>
+        <v>-0.04923813107304317</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001356079104500004</v>
+        <v>-0.001356079104500004</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0009034373569294925</v>
+        <v>0.0009034373569294925</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0009034373569294925</v>
+        <v>0.0009034373569294925</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.004394614224238819</v>
+        <v>0.004394614224238819</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.004716436766168532</v>
+        <v>0.004716436766168532</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002013869226890357</v>
+        <v>-0.002013869226890357</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1874,22 +1874,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.004468065050194611</v>
+        <v>0.004468065050194611</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00350072640482835</v>
+        <v>0.00350072640482835</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06621488400780746</v>
+        <v>-0.06621488400780746</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001291112584199537</v>
+        <v>-0.001291112584199537</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.000914607519554979</v>
+        <v>0.000914607519554979</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.000914607519554979</v>
+        <v>0.000914607519554979</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.004282597863985436</v>
+        <v>0.004282597863985436</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.004686327880784311</v>
+        <v>0.004686327880784311</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001156220537352182</v>
+        <v>-0.001156220537352182</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1930,22 +1930,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.004567274912243908</v>
+        <v>0.004567274912243908</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.003301105105379171</v>
+        <v>0.003301105105379171</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0661691313540161</v>
+        <v>-0.0661691313540161</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001230475381652814</v>
+        <v>-0.001230475381652814</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0009260257068355888</v>
+        <v>0.0009260257068355888</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0009260257068355888</v>
+        <v>0.0009260257068355888</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.004368442382270584</v>
+        <v>0.004368442382270584</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.004677070600473374</v>
+        <v>0.004677070600473374</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0009745594051789575</v>
+        <v>-0.0009745594051789575</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.004475849037004162</v>
+        <v>0.004475849037004162</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.003249595836000966</v>
+        <v>0.003249595836000966</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05449526779585559</v>
+        <v>-0.05449526779585559</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001174127027243256</v>
+        <v>-0.001174127027243256</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0009372153294280992</v>
+        <v>0.0009372153294280992</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0009372153294280992</v>
+        <v>0.0009372153294280992</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.004340724646648223</v>
+        <v>0.004340724646648223</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.004641630243095133</v>
+        <v>0.004641630243095133</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00140569507858213</v>
+        <v>-0.00140569507858213</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2042,22 +2042,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.004416182526836523</v>
+        <v>0.004416182526836523</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00346784712033123</v>
+        <v>0.00346784712033123</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05434006255364358</v>
+        <v>-0.05434006255364358</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001121547764821659</v>
+        <v>-0.001121547764821659</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0009482557857451905</v>
+        <v>0.0009482557857451905</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0009482557857451905</v>
+        <v>0.0009482557857451905</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2066,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.004336357740476682</v>
+        <v>0.004336357740476682</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.004621601517722548</v>
+        <v>0.004621601517722548</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00101479560760389</v>
+        <v>-0.00101479560760389</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2098,22 +2098,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00442454721549481</v>
+        <v>0.00442454721549481</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.003383701983391654</v>
+        <v>0.003383701983391654</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05711564244050132</v>
+        <v>-0.05711564244050132</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001072193762411097</v>
+        <v>-0.001072193762411097</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0009593171537839275</v>
+        <v>0.0009593171537839275</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0009593171537839275</v>
+        <v>0.0009593171537839275</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2122,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.004328914774472203</v>
+        <v>0.004328914774472203</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.004600400875754706</v>
+        <v>0.004600400875754706</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0009320353527096808</v>
+        <v>-0.0009320353527096808</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2154,22 +2154,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.004388352745969592</v>
+        <v>0.004388352745969592</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.003523471771148706</v>
+        <v>0.003523471771148706</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05340116813865729</v>
+        <v>-0.05340116813865729</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001025848784527967</v>
+        <v>-0.001025848784527967</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0009702880356488515</v>
+        <v>0.0009702880356488515</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0009702880356488515</v>
+        <v>0.0009702880356488515</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2178,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.004313856147415419</v>
+        <v>0.004313856147415419</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.004578566783235733</v>
+        <v>0.004578566783235733</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0009622882045524448</v>
+        <v>-0.0009622882045524448</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.004379342245594163</v>
+        <v>0.004379342245594163</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.003559891986424293</v>
+        <v>0.003559891986424293</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04958604524936762</v>
+        <v>-0.04958604524936762</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0009821617054006275</v>
+        <v>-0.0009821617054006275</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0009812363912628369</v>
+        <v>0.0009812363912628369</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0009812363912628369</v>
+        <v>0.0009812363912628369</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.004325936396675711</v>
+        <v>0.004325936396675711</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.004561586666580989</v>
+        <v>0.004561586666580989</v>
       </c>
       <c r="L32" t="n">
-        <v>0.000856996431324252</v>
+        <v>-0.000856996431324252</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2266,22 +2266,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.004371206181271035</v>
+        <v>0.004371206181271035</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.003544731889592915</v>
+        <v>0.003544731889592915</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04914591202317878</v>
+        <v>-0.04914591202317878</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0009408826371365916</v>
+        <v>-0.0009408826371365916</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0009921644067160146</v>
+        <v>0.0009921644067160146</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0009921644067160146</v>
+        <v>0.0009921644067160146</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.004318002552743926</v>
+        <v>0.004318002552743926</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.00454197105688595</v>
+        <v>0.00454197105688595</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0008334083328372897</v>
+        <v>-0.0008334083328372897</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
